--- a/biology/Botanique/Malouetia_barbata/Malouetia_barbata.xlsx
+++ b/biology/Botanique/Malouetia_barbata/Malouetia_barbata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Malouetia barbata est une espèce de plantes à fleurs de la famille des Apocynaceae et du genre Malouetia[2], endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malouetia barbata est une espèce de plantes à fleurs de la famille des Apocynaceae et du genre Malouetia, endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste qui se développe dans une forêt riveraine (Lobé, Kienke[2]). L'espèce a été observée dans la région du Sud, près de Kribi, également dans le parc national de Campo-Ma'an[2]. 
-L'espèce est fortement menacée par l'urbanisation, les projets touristiques et économiques, comme celui du port en eaux profondes de Kribi[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste qui se développe dans une forêt riveraine (Lobé, Kienke). L'espèce a été observée dans la région du Sud, près de Kribi, également dans le parc national de Campo-Ma'an. 
+L'espèce est fortement menacée par l'urbanisation, les projets touristiques et économiques, comme celui du port en eaux profondes de Kribi. 
 </t>
         </is>
       </c>
